--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_14_43.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_14_43.xlsx
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>77173.77645385753</v>
+        <v>5151068.340509112</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>77173.77645385753</v>
+        <v>5151068.340509112</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1035966086.9901</v>
+        <v>38948316.85041276</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11525.56773383764</v>
+        <v>995796.6259498557</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>21679.7491542665</v>
+        <v>1753764.656079476</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>31826.85882399185</v>
+        <v>2511732.686209096</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>42187.68095737344</v>
+        <v>3268941.018795863</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>52548.44579900386</v>
+        <v>4026149.35138263</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>62909.26793238544</v>
+        <v>4783357.683969396</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>73270.09006576701</v>
+        <v>5540566.01655616</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>83630.9121991486</v>
+        <v>6297774.349142922</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>93991.73433253021</v>
+        <v>7054982.681729685</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>104352.5564659118</v>
+        <v>7812191.014316447</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>114713.3754129502</v>
+        <v>8569399.346903211</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>125074.1975463318</v>
+        <v>9326607.679489978</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>135435.0196797134</v>
+        <v>10083816.01207675</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>145795.841813095</v>
+        <v>10841024.34466352</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>156156.6639464767</v>
+        <v>11598232.6772503</v>
       </c>
     </row>
   </sheetData>
